--- a/Sprint-Backlog-Burndown-Chart.xlsx
+++ b/Sprint-Backlog-Burndown-Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shawn/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shawn/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C028EECA-C8CF-8F4F-B7F0-1BDFF5C78EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6368E1F5-2334-AE45-8B30-B76F84439507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agile Sprint Backlog" sheetId="5" r:id="rId1"/>
@@ -316,8 +316,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -333,13 +333,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5434,7 +5434,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
